--- a/7. Návody pro ocenění/Medajle.xlsx
+++ b/7. Návody pro ocenění/Medajle.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NcFerrari\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lpesek\Documents\Projekty\BattleField2Ranks\7. Návody pro ocenění\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE89821B-9928-4171-8881-63F89A9B1185}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12030"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List1!$K$71:$K$96</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="0">List1!$I$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List1!$K$70:$K$95</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="0">List1!$I$76</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -408,7 +409,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -678,131 +679,131 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -833,18 +834,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>172640</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>89296</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>331311</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>51515</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Obrázek 1"/>
+        <xdr:cNvPr id="2" name="Obrázek 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -888,7 +895,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Obrázek 2"/>
+        <xdr:cNvPr id="3" name="Obrázek 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -921,18 +934,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2342</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>67826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>339607</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>30045</xdr:rowOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>30046</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Obrázek 3"/>
+        <xdr:cNvPr id="4" name="Obrázek 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -965,18 +984,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3514</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>68998</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>340779</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>31216</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Obrázek 4"/>
+        <xdr:cNvPr id="5" name="Obrázek 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1009,18 +1034,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4687</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>93983</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>341952</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>56202</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Obrázek 5"/>
+        <xdr:cNvPr id="6" name="Obrázek 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1053,18 +1084,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>178500</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>17765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>337171</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>105000</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>104999</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Obrázek 6"/>
+        <xdr:cNvPr id="7" name="Obrázek 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1108,7 +1145,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Obrázek 7"/>
+        <xdr:cNvPr id="8" name="Obrázek 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1152,7 +1195,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Obrázek 8"/>
+        <xdr:cNvPr id="9" name="Obrázek 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1196,7 +1245,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Obrázek 9"/>
+        <xdr:cNvPr id="10" name="Obrázek 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1240,7 +1295,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Obrázek 10"/>
+        <xdr:cNvPr id="11" name="Obrázek 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1284,7 +1345,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Obrázek 11"/>
+        <xdr:cNvPr id="12" name="Obrázek 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1317,18 +1384,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>173626</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>90281</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>332297</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>52499</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>52500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Obrázek 12"/>
+        <xdr:cNvPr id="13" name="Obrázek 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1361,18 +1434,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>168843</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>20015</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>327514</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>107249</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>107250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Obrázek 13"/>
+        <xdr:cNvPr id="14" name="Obrázek 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1405,18 +1484,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3327</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>21187</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>340592</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>108420</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Obrázek 14"/>
+        <xdr:cNvPr id="15" name="Obrázek 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1449,18 +1534,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>177141</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>22358</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>335812</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>109593</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Obrázek 15"/>
+        <xdr:cNvPr id="16" name="Obrázek 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1493,18 +1584,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>172359</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>77108</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>331030</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>39326</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>39325</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Obrázek 16"/>
+        <xdr:cNvPr id="17" name="Obrázek 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1537,18 +1634,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>173530</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>18748</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>332201</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>105982</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>105981</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Obrázek 17"/>
+        <xdr:cNvPr id="18" name="Obrázek 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1592,7 +1695,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Obrázek 18"/>
+        <xdr:cNvPr id="19" name="Obrázek 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1624,19 +1733,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>32525</xdr:colOff>
+      <xdr:colOff>36242</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>111514</xdr:rowOff>
+      <xdr:rowOff>44608</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>315951</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>18587</xdr:rowOff>
+      <xdr:colOff>319668</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>74344</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Obrázek 19"/>
+        <xdr:cNvPr id="20" name="Obrázek 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1655,8 +1770,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="213732" y="3373246"/>
-          <a:ext cx="283426" cy="283426"/>
+          <a:off x="218379" y="3233857"/>
+          <a:ext cx="283426" cy="275063"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1930,63 +2045,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29:D30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="2.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="55"/>
+      <c r="B1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="14" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14" t="s">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="14"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="54"/>
     </row>
     <row r="3" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1996,149 +2111,149 @@
       <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="14"/>
+      <c r="H3" s="54"/>
     </row>
     <row r="4" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18">
+      <c r="A4" s="28">
         <v>1</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="29">
         <v>2051902</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="15"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="15"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="29"/>
     </row>
     <row r="7" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18">
+      <c r="A7" s="28">
         <v>2</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="27">
         <v>2051919</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="19"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="27"/>
     </row>
     <row r="9" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="19"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="27"/>
     </row>
     <row r="10" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18">
+      <c r="A10" s="28">
         <v>3</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="17" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="29">
         <v>2051907</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="15"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="29"/>
     </row>
     <row r="12" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="15"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="29"/>
     </row>
     <row r="13" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18">
+      <c r="A13" s="28">
         <v>4</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20" t="s">
+      <c r="B13" s="27"/>
+      <c r="C13" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="31" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="7" t="s">
@@ -2150,42 +2265,42 @@
       <c r="G13" s="7">
         <v>5</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="27">
         <v>2191608</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="23" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="24">
         <v>20</v>
       </c>
-      <c r="H14" s="19"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="19"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27"/>
     </row>
     <row r="16" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18">
+      <c r="A16" s="28">
         <v>5</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="17" t="s">
+      <c r="B16" s="29"/>
+      <c r="C16" s="30" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="9" t="s">
@@ -2200,14 +2315,14 @@
       <c r="G16" s="6">
         <v>360000</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="29">
         <v>2021403</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="17"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="9" t="s">
         <v>27</v>
       </c>
@@ -2220,12 +2335,12 @@
       <c r="G17" s="6">
         <v>100</v>
       </c>
-      <c r="H17" s="15"/>
+      <c r="H17" s="29"/>
     </row>
     <row r="18" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="17"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="9" t="s">
         <v>41</v>
       </c>
@@ -2238,46 +2353,46 @@
       <c r="G18" s="6">
         <v>100</v>
       </c>
-      <c r="H18" s="15"/>
+      <c r="H18" s="29"/>
     </row>
     <row r="19" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="18">
+      <c r="A19" s="28">
         <v>6</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20" t="s">
+      <c r="B19" s="27"/>
+      <c r="C19" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="24">
         <v>360000</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="27">
         <v>2020719</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="19"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
     </row>
     <row r="21" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="8" t="s">
         <v>32</v>
       </c>
@@ -2290,42 +2405,42 @@
       <c r="G21" s="7">
         <v>100</v>
       </c>
-      <c r="H21" s="19"/>
+      <c r="H21" s="27"/>
     </row>
     <row r="22" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="21" t="s">
+      <c r="A22" s="28"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="24">
         <v>100</v>
       </c>
-      <c r="H22" s="19"/>
+      <c r="H22" s="27"/>
     </row>
     <row r="23" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="19"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="27"/>
     </row>
     <row r="24" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="18">
+      <c r="A24" s="28">
         <v>7</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="17" t="s">
+      <c r="B24" s="29"/>
+      <c r="C24" s="30" t="s">
         <v>46</v>
       </c>
       <c r="D24" s="9" t="s">
@@ -2340,14 +2455,14 @@
       <c r="G24" s="6">
         <v>360000</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="29">
         <v>2021613</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="17"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="30"/>
       <c r="D25" s="9" t="s">
         <v>38</v>
       </c>
@@ -2360,12 +2475,12 @@
       <c r="G25" s="6">
         <v>100</v>
       </c>
-      <c r="H25" s="15"/>
+      <c r="H25" s="29"/>
     </row>
     <row r="26" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="17"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="30"/>
       <c r="D26" s="9" t="s">
         <v>39</v>
       </c>
@@ -2378,14 +2493,14 @@
       <c r="G26" s="6">
         <v>100</v>
       </c>
-      <c r="H26" s="15"/>
+      <c r="H26" s="29"/>
     </row>
     <row r="27" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="43">
+      <c r="A27" s="20">
         <v>8</v>
       </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="21" t="s">
+      <c r="B27" s="22"/>
+      <c r="C27" s="17" t="s">
         <v>118</v>
       </c>
       <c r="D27" s="12" t="s">
@@ -2400,14 +2515,14 @@
       <c r="G27" s="11">
         <v>180000</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="24">
         <v>3270519</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="44"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="52"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="12" t="s">
         <v>120</v>
       </c>
@@ -2420,66 +2535,74 @@
       <c r="G28" s="11">
         <v>100</v>
       </c>
-      <c r="H28" s="53"/>
+      <c r="H28" s="25"/>
     </row>
     <row r="29" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="44"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="21" t="s">
+      <c r="A29" s="21"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E29" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="F29" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="G29" s="23">
+      <c r="G29" s="15">
         <v>100</v>
       </c>
-      <c r="H29" s="53"/>
+      <c r="H29" s="25"/>
     </row>
     <row r="30" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="45"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
+      <c r="A30" s="28">
+        <v>9</v>
+      </c>
+      <c r="B30" s="29"/>
+      <c r="C30" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="10">
+        <v>360000</v>
+      </c>
+      <c r="H30" s="29">
+        <v>2190318</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="18">
-        <v>9</v>
-      </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="17" t="s">
-        <v>45</v>
-      </c>
+      <c r="A31" s="28"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="30"/>
       <c r="D31" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>53</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="G31" s="10">
-        <v>360000</v>
-      </c>
-      <c r="H31" s="15">
-        <v>2190318</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="H31" s="29"/>
     </row>
     <row r="32" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="18"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="17"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="30"/>
       <c r="D32" s="13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>53</v>
@@ -2488,58 +2611,58 @@
         <v>54</v>
       </c>
       <c r="G32" s="10">
-        <v>5000</v>
-      </c>
-      <c r="H32" s="15"/>
+        <v>25</v>
+      </c>
+      <c r="H32" s="29"/>
     </row>
     <row r="33" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="18"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E33" s="10" t="s">
+      <c r="A33" s="28">
+        <v>10</v>
+      </c>
+      <c r="B33" s="27"/>
+      <c r="C33" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G33" s="10">
-        <v>25</v>
-      </c>
-      <c r="H33" s="15"/>
+      <c r="F33" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="11">
+        <v>360000</v>
+      </c>
+      <c r="H33" s="27">
+        <v>2190309</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="18">
-        <v>10</v>
-      </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="20" t="s">
-        <v>47</v>
-      </c>
+      <c r="A34" s="28"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="31"/>
       <c r="D34" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>53</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="G34" s="11">
-        <v>360000</v>
-      </c>
-      <c r="H34" s="19">
-        <v>2190309</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="H34" s="27"/>
     </row>
     <row r="35" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="20"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>53</v>
@@ -2548,58 +2671,58 @@
         <v>58</v>
       </c>
       <c r="G35" s="11">
-        <v>5000</v>
-      </c>
-      <c r="H35" s="19"/>
+        <v>25</v>
+      </c>
+      <c r="H35" s="27"/>
     </row>
     <row r="36" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="18"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="11" t="s">
+      <c r="A36" s="28">
+        <v>11</v>
+      </c>
+      <c r="B36" s="29"/>
+      <c r="C36" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F36" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G36" s="11">
-        <v>25</v>
-      </c>
-      <c r="H36" s="19"/>
+      <c r="F36" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G36" s="10">
+        <v>360000</v>
+      </c>
+      <c r="H36" s="29">
+        <v>2190308</v>
+      </c>
     </row>
     <row r="37" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="18">
-        <v>11</v>
-      </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="17" t="s">
-        <v>48</v>
-      </c>
+      <c r="A37" s="28"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="30"/>
       <c r="D37" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>53</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G37" s="10">
-        <v>360000</v>
-      </c>
-      <c r="H37" s="15">
-        <v>2190308</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="H37" s="29"/>
     </row>
     <row r="38" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="18"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="17"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="30"/>
       <c r="D38" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>53</v>
@@ -2608,711 +2731,649 @@
         <v>63</v>
       </c>
       <c r="G38" s="10">
-        <v>5000</v>
-      </c>
-      <c r="H38" s="15"/>
+        <v>25</v>
+      </c>
+      <c r="H38" s="29"/>
     </row>
     <row r="39" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="18"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G39" s="10">
-        <v>25</v>
-      </c>
-      <c r="H39" s="15"/>
+      <c r="A39" s="28">
+        <v>12</v>
+      </c>
+      <c r="B39" s="27"/>
+      <c r="C39" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G39" s="11">
+        <v>360000</v>
+      </c>
+      <c r="H39" s="27">
+        <v>2020419</v>
+      </c>
     </row>
     <row r="40" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="18">
-        <v>12</v>
-      </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="A40" s="28"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="31"/>
       <c r="D40" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G40" s="11">
         <v>360000</v>
       </c>
-      <c r="H40" s="19">
-        <v>2020419</v>
-      </c>
+      <c r="H40" s="27"/>
     </row>
     <row r="41" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="18"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="20"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="31"/>
       <c r="D41" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G41" s="11">
         <v>360000</v>
       </c>
-      <c r="H41" s="19"/>
+      <c r="H41" s="27"/>
     </row>
     <row r="42" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="18"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="20"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="31"/>
       <c r="D42" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G42" s="11">
-        <v>360000</v>
-      </c>
-      <c r="H42" s="19"/>
+        <v>45</v>
+      </c>
+      <c r="H42" s="27"/>
     </row>
     <row r="43" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="18"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="11" t="s">
+      <c r="A43" s="28">
+        <v>13</v>
+      </c>
+      <c r="B43" s="29"/>
+      <c r="C43" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E43" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F43" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G43" s="11">
-        <v>45</v>
-      </c>
-      <c r="H43" s="19"/>
+      <c r="F43" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G43" s="10">
+        <v>900000</v>
+      </c>
+      <c r="H43" s="29">
+        <v>2190703</v>
+      </c>
     </row>
     <row r="44" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="18">
-        <v>13</v>
-      </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="17" t="s">
-        <v>72</v>
-      </c>
+      <c r="A44" s="28"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="30"/>
       <c r="D44" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F44" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="10">
+        <v>24</v>
+      </c>
+      <c r="H44" s="29"/>
+    </row>
+    <row r="45" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="28"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="E45" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="G45" s="50">
+        <v>0</v>
+      </c>
+      <c r="H45" s="29"/>
+    </row>
+    <row r="46" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="28"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="29"/>
+    </row>
+    <row r="47" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="28">
+        <v>14</v>
+      </c>
+      <c r="B47" s="27"/>
+      <c r="C47" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="G44" s="10">
+      <c r="G47" s="11">
         <v>900000</v>
       </c>
-      <c r="H44" s="15">
-        <v>2190703</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="18"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" s="10">
-        <v>24</v>
-      </c>
-      <c r="H45" s="15"/>
-    </row>
-    <row r="46" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="18"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="E46" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="F46" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="G46" s="48">
-        <v>0</v>
-      </c>
-      <c r="H46" s="15"/>
-    </row>
-    <row r="47" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="18"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="15"/>
+      <c r="H47" s="27">
+        <v>2190303</v>
+      </c>
     </row>
     <row r="48" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="18">
-        <v>14</v>
-      </c>
-      <c r="B48" s="19"/>
-      <c r="C48" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="A48" s="28"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="31"/>
       <c r="D48" s="12" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="G48" s="11">
-        <v>900000</v>
-      </c>
-      <c r="H48" s="19">
-        <v>2190303</v>
-      </c>
+        <v>25000</v>
+      </c>
+      <c r="H48" s="27"/>
     </row>
     <row r="49" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="18"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="20"/>
+      <c r="A49" s="28"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="31"/>
       <c r="D49" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="G49" s="11">
-        <v>25000</v>
-      </c>
-      <c r="H49" s="19"/>
+        <v>25</v>
+      </c>
+      <c r="H49" s="27"/>
     </row>
     <row r="50" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="18"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="20"/>
+      <c r="A50" s="28"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="31"/>
       <c r="D50" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G50" s="11">
-        <v>25</v>
-      </c>
-      <c r="H50" s="19"/>
+        <v>1980</v>
+      </c>
+      <c r="H50" s="27"/>
     </row>
     <row r="51" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="18"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E51" s="11" t="s">
+      <c r="A51" s="28">
+        <v>15</v>
+      </c>
+      <c r="B51" s="29"/>
+      <c r="C51" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E51" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F51" s="11" t="s">
+      <c r="F51" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="G51" s="11">
-        <v>1980</v>
-      </c>
-      <c r="H51" s="19"/>
+      <c r="G51" s="10">
+        <v>900000</v>
+      </c>
+      <c r="H51" s="29">
+        <v>2191319</v>
+      </c>
     </row>
     <row r="52" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="18">
-        <v>15</v>
-      </c>
-      <c r="B52" s="15"/>
-      <c r="C52" s="17" t="s">
-        <v>74</v>
-      </c>
+      <c r="A52" s="28"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="30"/>
       <c r="D52" s="13" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G52" s="10">
-        <v>900000</v>
-      </c>
-      <c r="H52" s="15">
-        <v>2191319</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="H52" s="29"/>
     </row>
     <row r="53" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="18"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="17"/>
+      <c r="A53" s="28"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="30"/>
       <c r="D53" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G53" s="10">
         <v>1000</v>
       </c>
-      <c r="H53" s="15"/>
+      <c r="H53" s="29"/>
     </row>
     <row r="54" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="18"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="17"/>
+      <c r="A54" s="28"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="30"/>
       <c r="D54" s="13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G54" s="10">
         <v>1000</v>
       </c>
-      <c r="H54" s="15"/>
+      <c r="H54" s="29"/>
     </row>
     <row r="55" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="18"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E55" s="10" t="s">
+      <c r="A55" s="28"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="E55" s="48"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="29"/>
+    </row>
+    <row r="56" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="28">
+        <v>16</v>
+      </c>
+      <c r="B56" s="27"/>
+      <c r="C56" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E56" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F55" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G55" s="10">
-        <v>1000</v>
-      </c>
-      <c r="H55" s="15"/>
-    </row>
-    <row r="56" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="18"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="15"/>
+      <c r="F56" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G56" s="11">
+        <v>900000</v>
+      </c>
+      <c r="H56" s="27">
+        <v>2021322</v>
+      </c>
     </row>
     <row r="57" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="18">
-        <v>16</v>
-      </c>
-      <c r="B57" s="19"/>
-      <c r="C57" s="20" t="s">
-        <v>75</v>
-      </c>
+      <c r="A57" s="28"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="31"/>
       <c r="D57" s="12" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="E57" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="G57" s="11">
-        <v>900000</v>
-      </c>
-      <c r="H57" s="19">
-        <v>2021322</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="H57" s="27"/>
     </row>
     <row r="58" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="18"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="20"/>
+      <c r="A58" s="28"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="31"/>
       <c r="D58" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="G58" s="11">
-        <v>5000</v>
-      </c>
-      <c r="H58" s="19"/>
+        <v>30000</v>
+      </c>
+      <c r="H58" s="27"/>
     </row>
     <row r="59" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="18"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="20"/>
+      <c r="A59" s="28"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="31"/>
       <c r="D59" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="G59" s="11">
-        <v>30000</v>
-      </c>
-      <c r="H59" s="19"/>
+        <v>1000</v>
+      </c>
+      <c r="H59" s="27"/>
     </row>
     <row r="60" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="18"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E60" s="11" t="s">
+      <c r="A60" s="28"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="E60" s="45"/>
+      <c r="F60" s="45"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="27"/>
+    </row>
+    <row r="61" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="28">
         <v>17</v>
       </c>
-      <c r="F60" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="G60" s="11">
-        <v>1000</v>
-      </c>
-      <c r="H60" s="19"/>
-    </row>
-    <row r="61" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="18"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="19"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G61" s="10">
+        <v>720000</v>
+      </c>
+      <c r="H61" s="29">
+        <v>2020903</v>
+      </c>
     </row>
     <row r="62" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="18">
+      <c r="A62" s="28"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="H62" s="29"/>
+    </row>
+    <row r="63" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="28"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="29"/>
+    </row>
+    <row r="64" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="28"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="37"/>
+      <c r="H64" s="29"/>
+    </row>
+    <row r="65" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="28">
+        <v>18</v>
+      </c>
+      <c r="B65" s="27"/>
+      <c r="C65" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E65" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B62" s="15"/>
-      <c r="C62" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E62" s="10" t="s">
+      <c r="F65" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G65" s="11">
+        <v>1080000</v>
+      </c>
+      <c r="H65" s="27">
+        <v>2020913</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="28"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="H66" s="27"/>
+    </row>
+    <row r="67" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="28"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="40"/>
+      <c r="H67" s="27"/>
+    </row>
+    <row r="68" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="28"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="43"/>
+      <c r="H68" s="27"/>
+    </row>
+    <row r="69" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="28">
+        <v>19</v>
+      </c>
+      <c r="B69" s="29"/>
+      <c r="C69" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E69" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F62" s="10" t="s">
+      <c r="F69" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="G62" s="10">
-        <v>720000</v>
-      </c>
-      <c r="H62" s="15">
-        <v>2020903</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="18"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E63" s="10" t="s">
+      <c r="G69" s="10">
+        <v>1440000</v>
+      </c>
+      <c r="H69" s="29">
+        <v>2020919</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="28"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E70" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="F63" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="H63" s="15"/>
-    </row>
-    <row r="64" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="18"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="E64" s="38"/>
-      <c r="F64" s="38"/>
-      <c r="G64" s="39"/>
-      <c r="H64" s="15"/>
-    </row>
-    <row r="65" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="18"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="40"/>
-      <c r="E65" s="41"/>
-      <c r="F65" s="41"/>
-      <c r="G65" s="42"/>
-      <c r="H65" s="15"/>
-    </row>
-    <row r="66" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="18">
-        <v>18</v>
-      </c>
-      <c r="B66" s="19"/>
-      <c r="C66" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D66" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F66" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G66" s="11">
-        <v>1080000</v>
-      </c>
-      <c r="H66" s="19">
-        <v>2020913</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="18"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="F67" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G67" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="H67" s="19"/>
-    </row>
-    <row r="68" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="18"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="E68" s="32"/>
-      <c r="F68" s="32"/>
-      <c r="G68" s="33"/>
-      <c r="H68" s="19"/>
-    </row>
-    <row r="69" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="18"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="19"/>
-    </row>
-    <row r="70" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="18">
-        <v>19</v>
-      </c>
-      <c r="B70" s="15"/>
-      <c r="C70" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>17</v>
-      </c>
       <c r="F70" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="G70" s="10">
-        <v>1440000</v>
-      </c>
-      <c r="H70" s="15">
-        <v>2020919</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H70" s="29"/>
     </row>
     <row r="71" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="18"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E71" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="F71" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="G71" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="H71" s="15"/>
+      <c r="A71" s="28"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="E71" s="33"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="29"/>
     </row>
     <row r="72" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="18"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="E72" s="38"/>
-      <c r="F72" s="38"/>
-      <c r="G72" s="39"/>
-      <c r="H72" s="15"/>
+      <c r="A72" s="28"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="35"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="37"/>
+      <c r="H72" s="29"/>
     </row>
     <row r="73" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="18"/>
-      <c r="B73" s="15"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="40"/>
-      <c r="E73" s="41"/>
-      <c r="F73" s="41"/>
-      <c r="G73" s="42"/>
-      <c r="H73" s="15"/>
+      <c r="A73" s="1" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="74" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
         <v>117</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="120">
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="H27:H30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="H66:H69"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="H70:H73"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="D64:G65"/>
-    <mergeCell ref="D68:G69"/>
-    <mergeCell ref="D72:G73"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="H57:H61"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="H62:H65"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="H48:H51"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="C52:C56"/>
-    <mergeCell ref="H52:H56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="H44:H47"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="H37:H39"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="H19:H23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="H31:H33"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="E22:E23"/>
+  <mergeCells count="116">
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D22:D23"/>
     <mergeCell ref="H13:H15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="B16:B18"/>
@@ -3331,35 +3392,75 @@
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="H10:H12"/>
     <mergeCell ref="G7:G9"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="H33:H35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="H19:H23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="C69:C72"/>
+    <mergeCell ref="H69:H72"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="D63:G64"/>
+    <mergeCell ref="D67:G68"/>
+    <mergeCell ref="D71:G72"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="H61:H64"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="H65:H68"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="H56:H60"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="H47:H50"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="H51:H55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B39:B42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
